--- a/Examples/GroupDocs.Comparison.Examples.Java/Data/TargetFiles/target.xlsx
+++ b/Examples/GroupDocs.Comparison.Examples.Java/Data/TargetFiles/target.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>atir tahir</t>
+    <t xml:space="preserve"> Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it</t>
   </si>
 </sst>
 </file>
